--- a/徐丰的工作安排/1，阶段一java基础/阶段一的工作安排.xlsx
+++ b/徐丰的工作安排/1，阶段一java基础/阶段一的工作安排.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="java基础知识" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>java基础任务安排</t>
   </si>
@@ -63,16 +63,25 @@
   <si>
     <t>星期天</t>
   </si>
+  <si>
+    <t>2018/3/12-2018/3/18</t>
+  </si>
+  <si>
+    <t>Java基础-Java概述、环境变量、注释、关键字、标识符、常量
+Java基础（变量、运算符）
+java基础（引用数据类型，第2章流程控制语句）
+java基础（数组）</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -93,19 +102,102 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -113,6 +205,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -121,10 +214,33 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,126 +251,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -264,192 +267,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -459,97 +462,68 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="5" tint="0.399975585192419"/>
+        <color theme="5"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color theme="5" tint="0.399975585192419"/>
-      </top>
-      <bottom style="thin">
-        <color theme="5" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="5" tint="0.399975585192419"/>
-      </top>
-      <bottom style="thin">
-        <color theme="5" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color theme="5" tint="0.399975585192419"/>
+        <color theme="5"/>
       </right>
       <top style="thin">
-        <color theme="5" tint="0.399975585192419"/>
+        <color theme="5"/>
       </top>
-      <bottom style="thin">
-        <color theme="5" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color theme="5"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="5"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="5"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="5"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="5"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color theme="5"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color theme="5"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color theme="5"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="5"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,6 +552,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -592,6 +610,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -600,10 +633,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,133 +645,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -752,35 +785,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1130,10 +1163,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1211,18 +1244,18 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="10" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1230,133 +1263,335 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="10"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="11"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="9" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="12"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="9" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="12"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="9" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="12"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="11"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="5:11">
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="5:11">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="5:11">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="5:11">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="5:11">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="5:11">
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="5:11">
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="5:11">
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="5:11">
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="5:11">
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K14"/>
     <mergeCell ref="A1:K5"/>
     <mergeCell ref="A6:C7"/>
     <mergeCell ref="A8:C14"/>
     <mergeCell ref="E6:J7"/>
     <mergeCell ref="E8:J14"/>
+    <mergeCell ref="A15:C21"/>
+    <mergeCell ref="E15:J21"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/徐丰的工作安排/1，阶段一java基础/阶段一的工作安排.xlsx
+++ b/徐丰的工作安排/1，阶段一java基础/阶段一的工作安排.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>java基础任务安排</t>
   </si>
@@ -39,11 +39,14 @@
     <t>星期一</t>
   </si>
   <si>
-    <t xml:space="preserve">1，创建工作目录/工作软件目录
-2，安装eclipse，配置开发环境
- 3，安装git，熟悉git作用和操作
-  4，eclipse绑定github，测试上传
+    <t xml:space="preserve">创建工作目录/工作软件目录
+安装eclipse，配置开发环境
+安装git，熟悉git作用和操作
+eclipse绑定github，测试上传
 </t>
+  </si>
+  <si>
+    <t>完成</t>
   </si>
   <si>
     <t>星期二</t>
@@ -71,6 +74,15 @@
 Java基础（变量、运算符）
 java基础（引用数据类型，第2章流程控制语句）
 java基础（数组）</t>
+  </si>
+  <si>
+    <t>2018/3/19-2018/3/25</t>
+  </si>
+  <si>
+    <t>Java基础-Java基础语法05(方法)
+Java基础-Java基础语法06（类，ArrayList集合）
+java基础-Java基础语法07（循环，数组）
+java基础-Eclipse开发工具的介绍和使用</t>
   </si>
 </sst>
 </file>
@@ -109,75 +121,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,15 +150,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,25 +226,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -267,31 +279,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,156 +459,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -482,7 +494,7 @@
       <right style="thin">
         <color theme="5"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color theme="5"/>
       </top>
       <bottom style="thin">
@@ -500,30 +512,17 @@
       <top style="thin">
         <color theme="5"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="5"/>
-      </left>
-      <right style="thin">
-        <color theme="5"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5"/>
-      </left>
-      <right style="thin">
-        <color theme="5"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="5"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,15 +542,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -563,6 +553,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,8 +584,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,21 +615,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -633,10 +623,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,137 +635,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -788,32 +778,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1166,7 +1159,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1238,7 +1231,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" ht="14.25" spans="1:11">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1272,7 +1265,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" ht="14.25" spans="1:11">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1281,310 +1274,360 @@
       <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:11">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="D9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:11">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="11"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="D10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:11">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="D11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:11">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="D12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:11">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:11">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="7" t="s">
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6" t="s">
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="5:11">
-      <c r="E22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="23" spans="5:11">
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-    </row>
-    <row r="24" spans="5:11">
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-    </row>
-    <row r="25" spans="5:11">
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-    </row>
-    <row r="26" spans="5:11">
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-    </row>
-    <row r="27" spans="5:11">
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-    </row>
-    <row r="28" spans="5:11">
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
+      <c r="K28" s="12"/>
     </row>
     <row r="29" spans="5:11">
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
     </row>
     <row r="30" spans="5:11">
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
     </row>
     <row r="31" spans="5:11">
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="K8:K14"/>
+    <mergeCell ref="K15:K21"/>
+    <mergeCell ref="K22:K28"/>
     <mergeCell ref="A1:K5"/>
     <mergeCell ref="A6:C7"/>
     <mergeCell ref="A8:C14"/>
@@ -1592,6 +1635,8 @@
     <mergeCell ref="E8:J14"/>
     <mergeCell ref="A15:C21"/>
     <mergeCell ref="E15:J21"/>
+    <mergeCell ref="A22:C28"/>
+    <mergeCell ref="E22:J28"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/徐丰的工作安排/1，阶段一java基础/阶段一的工作安排.xlsx
+++ b/徐丰的工作安排/1，阶段一java基础/阶段一的工作安排.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>java基础任务安排</t>
   </si>
@@ -83,6 +83,12 @@
 Java基础-Java基础语法06（类，ArrayList集合）
 java基础-Java基础语法07（循环，数组）
 java基础-Eclipse开发工具的介绍和使用</t>
+  </si>
+  <si>
+    <t>2018/3/25-2018/3/31</t>
+  </si>
+  <si>
+    <t>完成前面3周所有任务，确保环境和后续任务提交都能顺利进行</t>
   </si>
 </sst>
 </file>
@@ -121,7 +127,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,6 +173,37 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,15 +217,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,85 +255,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,14 +269,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -279,187 +285,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,6 +533,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -542,17 +572,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,24 +613,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -600,21 +621,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -623,10 +629,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,137 +641,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,9 +785,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -804,9 +807,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1156,10 +1156,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1252,7 +1252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" ht="14.25" spans="1:11">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1266,368 +1266,451 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" ht="14.25" spans="1:11">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="4" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:11">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="8" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="4"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" ht="14.25" spans="1:11">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="9" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="4"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" ht="14.25" spans="1:11">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="4"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" ht="14.25" spans="1:11">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="9" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="4"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" ht="14.25" spans="1:11">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="10" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="4"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" ht="14.25" spans="1:11">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="9" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="4"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="10" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="9" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="11"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="10" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="9" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="11"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="11"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="9" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="11"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="11"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="9" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="12"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="12"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="9" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="12"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="10" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="12"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="9" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="12"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="11"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="10" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="12"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="9" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="5:11">
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-    </row>
-    <row r="30" spans="5:11">
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-    </row>
-    <row r="31" spans="5:11">
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="10"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="10"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="10"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="10"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="17">
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="K8:K14"/>
     <mergeCell ref="K15:K21"/>
     <mergeCell ref="K22:K28"/>
+    <mergeCell ref="K29:K35"/>
     <mergeCell ref="A1:K5"/>
     <mergeCell ref="A6:C7"/>
     <mergeCell ref="A8:C14"/>
@@ -1637,6 +1720,8 @@
     <mergeCell ref="E15:J21"/>
     <mergeCell ref="A22:C28"/>
     <mergeCell ref="E22:J28"/>
+    <mergeCell ref="A29:C35"/>
+    <mergeCell ref="E29:J35"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/徐丰的工作安排/1，阶段一java基础/阶段一的工作安排.xlsx
+++ b/徐丰的工作安排/1，阶段一java基础/阶段一的工作安排.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="java基础知识" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>java基础任务安排</t>
   </si>
@@ -89,6 +89,16 @@
   </si>
   <si>
     <t>完成前面3周所有任务，确保环境和后续任务提交都能顺利进行</t>
+  </si>
+  <si>
+    <t>2018/4/1-2018/4/7</t>
+  </si>
+  <si>
+    <t>Java基础-面向对象，封装，内存图(第9天视频)
+Java基础-面向对象，继承和抽象类(第10天视频)
+java基础-面向对象，接口和多态(第11天视频)
+java基础-面向对象，构造函数、this、super(第12天视频)
+java基础-面向对象，final、static等(第13天视频)</t>
   </si>
 </sst>
 </file>
@@ -96,10 +106,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -134,10 +144,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,6 +175,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -164,25 +249,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,7 +266,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,67 +279,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -285,187 +295,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,6 +538,65 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -548,30 +617,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -586,41 +631,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -629,10 +639,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,133 +651,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1156,10 +1166,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36:J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1393,7 +1403,9 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
+      <c r="K15" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="10"/>
@@ -1502,7 +1514,9 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="11"/>
+      <c r="K22" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="11"/>
@@ -1611,7 +1625,9 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="10"/>
+      <c r="K29" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="10"/>
@@ -1703,14 +1719,124 @@
       <c r="J35" s="9"/>
       <c r="K35" s="10"/>
     </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="11"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="11"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="11"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="11"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="K8:K14"/>
     <mergeCell ref="K15:K21"/>
     <mergeCell ref="K22:K28"/>
     <mergeCell ref="K29:K35"/>
+    <mergeCell ref="K36:K42"/>
     <mergeCell ref="A1:K5"/>
     <mergeCell ref="A6:C7"/>
     <mergeCell ref="A8:C14"/>
@@ -1722,6 +1848,8 @@
     <mergeCell ref="E22:J28"/>
     <mergeCell ref="A29:C35"/>
     <mergeCell ref="E29:J35"/>
+    <mergeCell ref="A36:C42"/>
+    <mergeCell ref="E36:J42"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/徐丰的工作安排/1，阶段一java基础/阶段一的工作安排.xlsx
+++ b/徐丰的工作安排/1，阶段一java基础/阶段一的工作安排.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>java基础任务安排</t>
   </si>
@@ -99,6 +99,15 @@
 java基础-面向对象，接口和多态(第11天视频)
 java基础-面向对象，构造函数、this、super(第12天视频)
 java基础-面向对象，final、static等(第13天视频)</t>
+  </si>
+  <si>
+    <t>2018/4/8-2018/4/14</t>
+  </si>
+  <si>
+    <t>Java基础-面向对象，eclipse操作，类、抽象、接口(第14天视频)
+Java基础-面向对象，java常用api(第15天视频)
+java基础-面向对象，正则表达式和日期类(第16天视频)
+java基础-面向对象，数据相关类(第17天视频)</t>
   </si>
 </sst>
 </file>
@@ -106,10 +115,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -137,7 +146,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,8 +191,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,120 +288,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -295,37 +304,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,145 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,11 +543,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,6 +593,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,56 +640,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -639,10 +648,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,133 +660,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1166,10 +1175,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36:J42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1828,8 +1837,117 @@
       <c r="J42" s="8"/>
       <c r="K42" s="11"/>
     </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="10"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="10"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="10"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="23">
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="K8:K14"/>
@@ -1837,6 +1955,7 @@
     <mergeCell ref="K22:K28"/>
     <mergeCell ref="K29:K35"/>
     <mergeCell ref="K36:K42"/>
+    <mergeCell ref="K43:K49"/>
     <mergeCell ref="A1:K5"/>
     <mergeCell ref="A6:C7"/>
     <mergeCell ref="A8:C14"/>
@@ -1850,6 +1969,8 @@
     <mergeCell ref="E29:J35"/>
     <mergeCell ref="A36:C42"/>
     <mergeCell ref="E36:J42"/>
+    <mergeCell ref="A43:C49"/>
+    <mergeCell ref="E43:J49"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/徐丰的工作安排/1，阶段一java基础/阶段一的工作安排.xlsx
+++ b/徐丰的工作安排/1，阶段一java基础/阶段一的工作安排.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>java基础任务安排</t>
   </si>
@@ -108,6 +108,14 @@
 Java基础-面向对象，java常用api(第15天视频)
 java基础-面向对象，正则表达式和日期类(第16天视频)
 java基础-面向对象，数据相关类(第17天视频)</t>
+  </si>
+  <si>
+    <t>2018/4/15-2018/4/21</t>
+  </si>
+  <si>
+    <t>1，这周没有视频任务，完成前面6周所有作业
+2，去CSDN或者简书创建一个账号，开始写博客，自己选择去哪里写，或者其他博客网站也行
+3，发表一篇博客，名字自己定，内容为学习面向对象的体会，需要你总结前面学习的面向对象里的一些重要的基本知识(继承，封装，多态，类，接口，抽象类等)</t>
   </si>
 </sst>
 </file>
@@ -115,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -146,15 +154,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,25 +182,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,15 +197,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,9 +213,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,28 +244,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,6 +281,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -304,49 +312,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,133 +486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,41 +551,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,13 +575,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,6 +614,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -648,145 +656,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1175,10 +1183,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1946,8 +1954,117 @@
       <c r="J49" s="9"/>
       <c r="K49" s="10"/>
     </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="11"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="11"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="11"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="11"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="11"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="11"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="26">
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="K8:K14"/>
@@ -1956,6 +2073,7 @@
     <mergeCell ref="K29:K35"/>
     <mergeCell ref="K36:K42"/>
     <mergeCell ref="K43:K49"/>
+    <mergeCell ref="K50:K56"/>
     <mergeCell ref="A1:K5"/>
     <mergeCell ref="A6:C7"/>
     <mergeCell ref="A8:C14"/>
@@ -1971,6 +2089,8 @@
     <mergeCell ref="E36:J42"/>
     <mergeCell ref="A43:C49"/>
     <mergeCell ref="E43:J49"/>
+    <mergeCell ref="A50:C56"/>
+    <mergeCell ref="E50:J56"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
